--- a/public/regular.xlsx
+++ b/public/regular.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>Приложение № 4</t>
   </si>
@@ -308,9 +308,6 @@
     <t>currentDate</t>
   </si>
   <si>
-    <t>companyLegalAdress</t>
-  </si>
-  <si>
     <t>deliveryAddress</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
   </si>
   <si>
     <t>deliveryDate</t>
-  </si>
-  <si>
-    <t>transportCompany</t>
   </si>
   <si>
     <t>driverData</t>
@@ -1231,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:Y76"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1365,7 @@
       </c>
       <c r="Q8" s="104"/>
       <c r="R8" s="93" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S8" s="93"/>
       <c r="T8" s="93"/>
@@ -1597,9 +1591,7 @@
     </row>
     <row r="12" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="57" t="s">
-        <v>94</v>
-      </c>
+      <c r="B12" s="57"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
@@ -1901,10 +1893,7 @@
     </row>
     <row r="17" spans="1:58" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="60" t="str">
-        <f>B12</f>
-        <v>companyLegalAdress</v>
-      </c>
+      <c r="B17" s="60"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
@@ -2025,7 +2014,7 @@
     <row r="19" spans="1:58" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="92"/>
       <c r="D19" s="92"/>
@@ -2208,7 +2197,7 @@
     <row r="22" spans="1:58" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -2237,7 +2226,7 @@
       <c r="AA22" s="50"/>
       <c r="AB22" s="51"/>
       <c r="AC22" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD22" s="53"/>
       <c r="AE22" s="53"/>
@@ -2271,7 +2260,7 @@
     <row r="23" spans="1:58" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -2300,7 +2289,7 @@
       <c r="AA23" s="50"/>
       <c r="AB23" s="51"/>
       <c r="AC23" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD23" s="53"/>
       <c r="AE23" s="53"/>
@@ -3125,7 +3114,7 @@
     <row r="37" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
@@ -3434,9 +3423,7 @@
     </row>
     <row r="42" spans="1:57" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
-      <c r="B42" s="86" t="s">
-        <v>101</v>
-      </c>
+      <c r="B42" s="86"/>
       <c r="C42" s="86"/>
       <c r="D42" s="86"/>
       <c r="E42" s="86"/>
@@ -3465,7 +3452,7 @@
       <c r="AB42" s="40"/>
       <c r="AC42" s="39"/>
       <c r="AD42" s="87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE42" s="87"/>
       <c r="AF42" s="87"/>
@@ -3622,7 +3609,7 @@
     <row r="45" spans="1:57" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="81"/>
       <c r="D45" s="81"/>
@@ -3652,7 +3639,7 @@
       <c r="AB45" s="47"/>
       <c r="AC45" s="48"/>
       <c r="AD45" s="81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE45" s="81"/>
       <c r="AF45" s="81"/>
@@ -3852,7 +3839,7 @@
       <c r="AQ48" s="44"/>
       <c r="AR48" s="46"/>
       <c r="AS48" s="79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AT48" s="79"/>
       <c r="AU48" s="79"/>
@@ -4062,9 +4049,9 @@
     </row>
     <row r="54" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
-      <c r="B54" s="60" t="str">
+      <c r="B54" s="60">
         <f>B12</f>
-        <v>companyLegalAdress</v>
+        <v>0</v>
       </c>
       <c r="C54" s="60"/>
       <c r="D54" s="60"/>
@@ -4185,9 +4172,9 @@
     </row>
     <row r="56" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
-      <c r="B56" s="60" t="str">
+      <c r="B56" s="60">
         <f>B12</f>
-        <v>companyLegalAdress</v>
+        <v>0</v>
       </c>
       <c r="C56" s="60"/>
       <c r="D56" s="60"/>
@@ -4309,7 +4296,7 @@
     <row r="58" spans="1:57" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="76"/>
@@ -4684,7 +4671,7 @@
     <row r="64" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="70" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C64" s="70"/>
       <c r="D64" s="70"/>
@@ -4808,7 +4795,7 @@
     <row r="66" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="68" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C66" s="68"/>
       <c r="D66" s="68"/>
@@ -4930,7 +4917,7 @@
     <row r="68" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C68" s="66"/>
       <c r="D68" s="66"/>
@@ -4958,7 +4945,7 @@
       <c r="Z68" s="31"/>
       <c r="AA68" s="30"/>
       <c r="AB68" s="69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AC68" s="69"/>
       <c r="AD68" s="69"/>
